--- a/comment_Analysis/resultsAWS.xlsx
+++ b/comment_Analysis/resultsAWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="1560" windowWidth="24560" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="13560" yWindow="1500" windowWidth="24560" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Positive</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>True Positives</t>
+  </si>
+  <si>
+    <t>False Positives</t>
+  </si>
+  <si>
+    <t>F score</t>
   </si>
 </sst>
 </file>
@@ -1042,16 +1060,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1336,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,6 +1434,95 @@
         <v>5869</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>981</v>
+      </c>
+      <c r="C13">
+        <v>665</v>
+      </c>
+      <c r="D13">
+        <f>B13/(B13+C13)</f>
+        <v>0.59599027946537064</v>
+      </c>
+      <c r="E13">
+        <f>B13/A6</f>
+        <v>0.86968085106382975</v>
+      </c>
+      <c r="F13">
+        <f>2*D13*E13/(D13+E13)</f>
+        <v>0.70728190338860852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>543</v>
+      </c>
+      <c r="C14">
+        <v>967</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D15" si="0">B14/(B14+C14)</f>
+        <v>0.35960264900662253</v>
+      </c>
+      <c r="E14">
+        <f>B14/B6</f>
+        <v>0.69083969465648853</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F15" si="1">2*D14*E14/(D14+E14)</f>
+        <v>0.47299651567944245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2341</v>
+      </c>
+      <c r="C15">
+        <v>240</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.90701278574196043</v>
+      </c>
+      <c r="E15">
+        <f>B15/C6</f>
+        <v>0.59190897597977243</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.71634026927784566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
